--- a/app/src/main/resources/migration/인사카드.xlsx
+++ b/app/src/main/resources/migration/인사카드.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcg\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\hywtl_has\app\src\main\resources\migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CF8224-790B-43C8-9035-A3A1819A1FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B777A8-8E20-4892-8E4B-D183751955AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-60" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31110" yWindow="1935" windowWidth="28800" windowHeight="18465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="인사카드등록" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="406">
-  <si>
-    <t>회사명 : 주식회사 한양풍동실험연구소</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="422">
   <si>
     <t>사원번호</t>
   </si>
@@ -133,9 +130,6 @@
     <t>18010101</t>
   </si>
   <si>
-    <t>편집</t>
-  </si>
-  <si>
     <t>이재형</t>
   </si>
   <si>
@@ -154,9 +148,6 @@
     <t>18052901</t>
   </si>
   <si>
-    <t>디자인2</t>
-  </si>
-  <si>
     <t>송준호</t>
   </si>
   <si>
@@ -172,9 +163,6 @@
     <t>18110101</t>
   </si>
   <si>
-    <t>연구</t>
-  </si>
-  <si>
     <t>김영순</t>
   </si>
   <si>
@@ -193,9 +181,6 @@
     <t>19011401</t>
   </si>
   <si>
-    <t>실험</t>
-  </si>
-  <si>
     <t>이영수</t>
   </si>
   <si>
@@ -223,9 +208,6 @@
     <t>19042501</t>
   </si>
   <si>
-    <t>디자인1</t>
-  </si>
-  <si>
     <t>김현정</t>
   </si>
   <si>
@@ -301,9 +283,6 @@
     <t>20022401</t>
   </si>
   <si>
-    <t>영업</t>
-  </si>
-  <si>
     <t>홍기찬</t>
   </si>
   <si>
@@ -349,9 +328,6 @@
     <t>20061501</t>
   </si>
   <si>
-    <t>튜빙</t>
-  </si>
-  <si>
     <t>이주연</t>
   </si>
   <si>
@@ -421,9 +397,6 @@
     <t>21010103</t>
   </si>
   <si>
-    <t>제작</t>
-  </si>
-  <si>
     <t>고영진</t>
   </si>
   <si>
@@ -563,9 +536,6 @@
   </si>
   <si>
     <t>22021401</t>
-  </si>
-  <si>
-    <t>경영전략</t>
   </si>
   <si>
     <t>장현승</t>
@@ -1288,22 +1258,585 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>총괄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>HQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>COMPANY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PART</t>
   </si>
   <si>
     <t>PART</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>임원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>총괄본부</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>편집 부서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디자인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부서</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술 부서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실험</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부서</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기술</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부서</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디자인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부서</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디자인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부서</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>편집</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부서</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디자인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부서</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>실험 부서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실험</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부서</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부서</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>튜빙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부서</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기계제작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부서</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>편집</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부서</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>튜빙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부서</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기계제작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부서</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디자인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부서</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEAM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경영전략본부</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>튜빙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부서</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경영전략</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>본부</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기계제작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부서</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마케팅팀</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1311,7 +1844,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1354,6 +1887,41 @@
     <font>
       <sz val="10"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -1410,12 +1978,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1439,6 +2004,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1755,10 +2332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1779,1763 +2356,1712 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="I11" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="L11" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="I3" s="7" t="e">
-        <f>VLOOKUP(D3,Sheet1!A:C,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="I4" s="7" t="str">
-        <f>VLOOKUP(D4,Sheet1!A:C,3,0)</f>
-        <v>noid99@hywtl.com</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="D33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="I5" s="7" t="str">
-        <f>VLOOKUP(D5,Sheet1!A:C,3,0)</f>
-        <v>limjt@hywtl.com</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="7" t="e">
-        <f>VLOOKUP(D6,Sheet1!A:C,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D35" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="I7" s="7" t="str">
-        <f>VLOOKUP(D7,Sheet1!A:C,3,0)</f>
-        <v>leejh@hywtl.com</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="I8" s="7" t="str">
-        <f>VLOOKUP(D8,Sheet1!A:C,3,0)</f>
-        <v>songjh@hywtl.com</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="7" t="str">
-        <f>VLOOKUP(D9,Sheet1!A:C,3,0)</f>
-        <v>kimys@hywtl.com</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="I10" s="7" t="str">
-        <f>VLOOKUP(D10,Sheet1!A:C,3,0)</f>
-        <v>leeys@hywtl.com</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="7" t="str">
-        <f>VLOOKUP(D11,Sheet1!A:C,3,0)</f>
-        <v>joohc@hywtl.com</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="I12" s="7" t="str">
-        <f>VLOOKUP(D12,Sheet1!A:C,3,0)</f>
-        <v>kimhj@hywtl.com</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="I13" s="7" t="str">
-        <f>VLOOKUP(D13,Sheet1!A:C,3,0)</f>
-        <v>parksj@hywtl.com</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="I14" s="7" t="str">
-        <f>VLOOKUP(D14,Sheet1!A:C,3,0)</f>
-        <v>kimjy@hywtl.com</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="I15" s="7" t="str">
-        <f>VLOOKUP(D15,Sheet1!A:C,3,0)</f>
-        <v>parkbh@hywtl.com</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="I16" s="7" t="str">
-        <f>VLOOKUP(D16,Sheet1!A:C,3,0)</f>
-        <v>leejm@hywtl.com</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="I17" s="7" t="str">
-        <f>VLOOKUP(D17,Sheet1!A:C,3,0)</f>
-        <v>kanghs@hywtl.com</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="I18" s="7" t="str">
-        <f>VLOOKUP(D18,Sheet1!A:C,3,0)</f>
-        <v>hongkc@hywtl.com</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="I19" s="7" t="str">
-        <f>VLOOKUP(D19,Sheet1!A:C,3,0)</f>
-        <v>hanyh@hywtl.com</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I20" s="7" t="str">
-        <f>VLOOKUP(D20,Sheet1!A:C,3,0)</f>
-        <v>choiej@hywtl.com</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="I21" s="7" t="str">
-        <f>VLOOKUP(D21,Sheet1!A:C,3,0)</f>
-        <v>kimsh@hywtl.com</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I22" s="7" t="str">
-        <f>VLOOKUP(D22,Sheet1!A:C,3,0)</f>
-        <v>leejy@hywtl.com</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I23" s="7" t="str">
-        <f>VLOOKUP(D23,Sheet1!A:C,3,0)</f>
-        <v>jeongjh@hywtl.com</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="I24" s="7" t="str">
-        <f>VLOOKUP(D24,Sheet1!A:C,3,0)</f>
-        <v>kangje@hywtl.com</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I25" s="7" t="e">
-        <f>VLOOKUP(D25,Sheet1!A:C,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="I26" s="7" t="str">
-        <f>VLOOKUP(D26,Sheet1!A:C,3,0)</f>
-        <v>hansj@hywtl.com</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="I27" s="7" t="str">
-        <f>VLOOKUP(D27,Sheet1!A:C,3,0)</f>
-        <v>koyj@hywtl.com</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="I28" s="7" t="str">
-        <f>VLOOKUP(D28,Sheet1!A:C,3,0)</f>
-        <v>yoonhb@hywtl.com</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="F45" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="I29" s="7" t="str">
-        <f>VLOOKUP(D29,Sheet1!A:C,3,0)</f>
-        <v>kimmj@hywtl.com</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="I30" s="7" t="str">
-        <f>VLOOKUP(D30,Sheet1!A:C,3,0)</f>
-        <v>baehj@hywtl.com</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I31" s="7" t="str">
-        <f>VLOOKUP(D31,Sheet1!A:C,3,0)</f>
-        <v>baejh@hywtl.com</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I32" s="7" t="str">
-        <f>VLOOKUP(D32,Sheet1!A:C,3,0)</f>
-        <v>leesw@hywtl.com</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I33" s="7" t="str">
-        <f>VLOOKUP(D33,Sheet1!A:C,3,0)</f>
-        <v>leejr@hywtl.com</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I34" s="7" t="str">
-        <f>VLOOKUP(D34,Sheet1!A:C,3,0)</f>
-        <v>songdh@hywtl.com</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="I35" s="7" t="str">
-        <f>VLOOKUP(D35,Sheet1!A:C,3,0)</f>
-        <v>moonsh@hywtl.com</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I36" s="7" t="str">
-        <f>VLOOKUP(D36,Sheet1!A:C,3,0)</f>
-        <v>leehm@hywtl.com</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K36" s="5" t="s">
+      <c r="G45" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="L36" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="I37" s="7" t="str">
-        <f>VLOOKUP(D37,Sheet1!A:C,3,0)</f>
-        <v>kongyb@hywtl.com</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="I38" s="7" t="str">
-        <f>VLOOKUP(D38,Sheet1!A:C,3,0)</f>
-        <v>janghs@hywtl.com</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I39" s="7" t="str">
-        <f>VLOOKUP(D39,Sheet1!A:C,3,0)</f>
-        <v>jojh@hywtl.com</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K39" s="5" t="s">
+      <c r="L45" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I40" s="7" t="str">
-        <f>VLOOKUP(D40,Sheet1!A:C,3,0)</f>
-        <v>baekjh@hywtl.com</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="I41" s="7" t="str">
-        <f>VLOOKUP(D41,Sheet1!A:C,3,0)</f>
-        <v>kangsj@hywtl.com</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="I42" s="7" t="str">
-        <f>VLOOKUP(D42,Sheet1!A:C,3,0)</f>
-        <v>leews@hywtl.com</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="I46" s="7" t="str">
-        <f>VLOOKUP(D46,Sheet1!A:C,3,0)</f>
-        <v>kimsj@hywtl.com</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I45" r:id="rId1" xr:uid="{4422290A-9B76-4829-AC2A-6B2151D9027C}"/>
-    <hyperlink ref="I44" r:id="rId2" xr:uid="{13AF5CA1-E826-4E64-B3AE-1E3630DB3549}"/>
-    <hyperlink ref="I43" r:id="rId3" xr:uid="{1DDD4A9B-7F09-479B-9D3C-7CB3F1484038}"/>
+    <hyperlink ref="I44" r:id="rId1" xr:uid="{4422290A-9B76-4829-AC2A-6B2151D9027C}"/>
+    <hyperlink ref="I43" r:id="rId2" xr:uid="{13AF5CA1-E826-4E64-B3AE-1E3630DB3549}"/>
+    <hyperlink ref="I42" r:id="rId3" xr:uid="{1DDD4A9B-7F09-479B-9D3C-7CB3F1484038}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9"/>
@@ -3559,13 +4085,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3574,13 +4100,13 @@
         <v>강수정</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3589,13 +4115,13 @@
         <v>강지은</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3604,13 +4130,13 @@
         <v>강형석</v>
       </c>
       <c r="B4" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3619,13 +4145,13 @@
         <v>경영전</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C5" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3634,13 +4160,13 @@
         <v>고영진</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D6" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3649,13 +4175,13 @@
         <v>공윤배</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3664,10 +4190,10 @@
         <v>기술연</v>
       </c>
       <c r="B8" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C8" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D8">
         <v>1073356699</v>
@@ -3679,13 +4205,13 @@
         <v>김명진</v>
       </c>
       <c r="B9" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C9" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D9" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3694,13 +4220,13 @@
         <v>김송화</v>
       </c>
       <c r="B10" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C10" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D10" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3709,13 +4235,13 @@
         <v>김수진</v>
       </c>
       <c r="B11" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D11" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3724,13 +4250,13 @@
         <v>김영순</v>
       </c>
       <c r="B12" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C12" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3739,13 +4265,13 @@
         <v>김준용</v>
       </c>
       <c r="B13" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C13" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D13" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3754,13 +4280,13 @@
         <v>김현정</v>
       </c>
       <c r="B14" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C14" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D14" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3769,13 +4295,13 @@
         <v>문성현</v>
       </c>
       <c r="B15" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C15" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3784,13 +4310,13 @@
         <v>박범희</v>
       </c>
       <c r="B16" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C16" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D16" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3799,13 +4325,13 @@
         <v>박승제</v>
       </c>
       <c r="B17" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C17" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D17" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3814,13 +4340,13 @@
         <v>배준한</v>
       </c>
       <c r="B18" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C18" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D18" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3829,13 +4355,13 @@
         <v>배한진</v>
       </c>
       <c r="B19" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C19" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D19" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3844,13 +4370,13 @@
         <v>백주현</v>
       </c>
       <c r="B20" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C20" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D20" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3859,13 +4385,13 @@
         <v>송동호</v>
       </c>
       <c r="B21" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C21" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D21" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3874,13 +4400,13 @@
         <v>송준호</v>
       </c>
       <c r="B22" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C22" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D22" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3889,13 +4415,13 @@
         <v>윤희배</v>
       </c>
       <c r="B23" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="C23" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="D23" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3904,13 +4430,13 @@
         <v>이승원</v>
       </c>
       <c r="B24" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C24" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3919,13 +4445,13 @@
         <v>이영수</v>
       </c>
       <c r="B25" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C25" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D25" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3934,13 +4460,13 @@
         <v>이원석</v>
       </c>
       <c r="B26" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C26" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="D26" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3949,13 +4475,13 @@
         <v>이재린</v>
       </c>
       <c r="B27" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C27" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D27" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3964,13 +4490,13 @@
         <v>이재무</v>
       </c>
       <c r="B28" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C28" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="D28" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3979,13 +4505,13 @@
         <v>이재형</v>
       </c>
       <c r="B29" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C29" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D29" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3994,13 +4520,13 @@
         <v>이주연</v>
       </c>
       <c r="B30" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C30" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4009,13 +4535,13 @@
         <v>이효민</v>
       </c>
       <c r="B31" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C31" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D31" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4024,13 +4550,13 @@
         <v>임준택</v>
       </c>
       <c r="B32" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4039,13 +4565,13 @@
         <v>장현승</v>
       </c>
       <c r="B33" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C33" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="D33" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4054,13 +4580,13 @@
         <v>정지혜</v>
       </c>
       <c r="B34" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C34" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4069,13 +4595,13 @@
         <v>조준현</v>
       </c>
       <c r="B35" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C35" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="D35" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4084,13 +4610,13 @@
         <v>주홍찬</v>
       </c>
       <c r="B36" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C36" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4099,10 +4625,10 @@
         <v>최승희</v>
       </c>
       <c r="B37" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C37" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D37">
         <v>1036399784</v>
@@ -4114,13 +4640,13 @@
         <v>최은진</v>
       </c>
       <c r="B38" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C38" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4129,13 +4655,13 @@
         <v>한석주</v>
       </c>
       <c r="B39" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C39" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D39" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -4144,10 +4670,10 @@
         <v>한양풍</v>
       </c>
       <c r="B40" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C40" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D40">
         <v>1072244623</v>
@@ -4159,13 +4685,13 @@
         <v>한윤호</v>
       </c>
       <c r="B41" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C41" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="D41" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4174,13 +4700,13 @@
         <v>홍기찬</v>
       </c>
       <c r="B42" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C42" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D42" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/resources/migration/인사카드.xlsx
+++ b/app/src/main/resources/migration/인사카드.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\hywtl_has\app\src\main\resources\migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B777A8-8E20-4892-8E4B-D183751955AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4C939F-FD07-4DEB-83C4-925E6FE3BE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31110" yWindow="1935" windowWidth="28800" windowHeight="18465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-45" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="인사카드등록" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="345">
   <si>
     <t>사원번호</t>
   </si>
@@ -43,9 +43,6 @@
     <t>성명</t>
   </si>
   <si>
-    <t>직위/직급명</t>
-  </si>
-  <si>
     <t>직책명</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>대표</t>
   </si>
   <si>
-    <t>2017/02/16</t>
-  </si>
-  <si>
     <t>noid99@naver.com</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>총괄본부장</t>
   </si>
   <si>
-    <t>2018/10/10</t>
-  </si>
-  <si>
     <t>limjt@hywtl.com</t>
   </si>
   <si>
@@ -118,9 +109,6 @@
     <t>김종락</t>
   </si>
   <si>
-    <t>2019/10/01</t>
-  </si>
-  <si>
     <t>010-5212-9415</t>
   </si>
   <si>
@@ -139,9 +127,6 @@
     <t>부서원</t>
   </si>
   <si>
-    <t>2018/01/01</t>
-  </si>
-  <si>
     <t>jaehyuong86@nate.com</t>
   </si>
   <si>
@@ -154,9 +139,6 @@
     <t>부서장</t>
   </si>
   <si>
-    <t>2018/08/30</t>
-  </si>
-  <si>
     <t>sjh9641@naver.com</t>
   </si>
   <si>
@@ -169,9 +151,6 @@
     <t>전임연구원</t>
   </si>
   <si>
-    <t>2018/11/01</t>
-  </si>
-  <si>
     <t>010-4546-7569</t>
   </si>
   <si>
@@ -184,9 +163,6 @@
     <t>이영수</t>
   </si>
   <si>
-    <t>2019/01/14</t>
-  </si>
-  <si>
     <t>ghyu562000@naver.com</t>
   </si>
   <si>
@@ -196,9 +172,6 @@
     <t>주홍찬</t>
   </si>
   <si>
-    <t>2019/01/15</t>
-  </si>
-  <si>
     <t>010-4120-6929</t>
   </si>
   <si>
@@ -211,9 +184,6 @@
     <t>김현정</t>
   </si>
   <si>
-    <t>2019/04/25</t>
-  </si>
-  <si>
     <t>guswjd3104@naver.com</t>
   </si>
   <si>
@@ -226,9 +196,6 @@
     <t>선임연구원</t>
   </si>
   <si>
-    <t>2019/06/17</t>
-  </si>
-  <si>
     <t>yusi0@naver.com</t>
   </si>
   <si>
@@ -238,9 +205,6 @@
     <t>김준용</t>
   </si>
   <si>
-    <t>2019/06/21</t>
-  </si>
-  <si>
     <t>junyong7380@naver.com</t>
   </si>
   <si>
@@ -259,9 +223,6 @@
     <t>이재무</t>
   </si>
   <si>
-    <t>2020/01/02</t>
-  </si>
-  <si>
     <t>laurelj@naver.com</t>
   </si>
   <si>
@@ -274,9 +235,6 @@
     <t>일반연구원</t>
   </si>
   <si>
-    <t>2020/02/11</t>
-  </si>
-  <si>
     <t>zergghs96@naver.com</t>
   </si>
   <si>
@@ -286,9 +244,6 @@
     <t>홍기찬</t>
   </si>
   <si>
-    <t>2020/02/24</t>
-  </si>
-  <si>
     <t>wheru@naver.com</t>
   </si>
   <si>
@@ -298,9 +253,6 @@
     <t>한윤호</t>
   </si>
   <si>
-    <t>2020/03/24</t>
-  </si>
-  <si>
     <t>gksdbsh@naver.com</t>
   </si>
   <si>
@@ -331,9 +283,6 @@
     <t>이주연</t>
   </si>
   <si>
-    <t>2020/06/15</t>
-  </si>
-  <si>
     <t>010-9876-6495</t>
   </si>
   <si>
@@ -346,9 +295,6 @@
     <t>정지혜</t>
   </si>
   <si>
-    <t>2020/09/26</t>
-  </si>
-  <si>
     <t>010-3215-6229</t>
   </si>
   <si>
@@ -361,9 +307,6 @@
     <t>강지은</t>
   </si>
   <si>
-    <t>2020/10/05</t>
-  </si>
-  <si>
     <t>kje989898@naver.com</t>
   </si>
   <si>
@@ -373,9 +316,6 @@
     <t>김윤식</t>
   </si>
   <si>
-    <t>2020/10/13</t>
-  </si>
-  <si>
     <t>010-8760-8858</t>
   </si>
   <si>
@@ -388,9 +328,6 @@
     <t>한석주</t>
   </si>
   <si>
-    <t>2021/01/01</t>
-  </si>
-  <si>
     <t>hanhan5748@gmail.com</t>
   </si>
   <si>
@@ -427,9 +364,6 @@
     <t>배한진</t>
   </si>
   <si>
-    <t>2021/01/04</t>
-  </si>
-  <si>
     <t>sexyhan22@naver.com</t>
   </si>
   <si>
@@ -439,9 +373,6 @@
     <t>배준한</t>
   </si>
   <si>
-    <t>2021/06/14</t>
-  </si>
-  <si>
     <t>010-2879-7749</t>
   </si>
   <si>
@@ -454,9 +385,6 @@
     <t>이승원</t>
   </si>
   <si>
-    <t>2021/09/27</t>
-  </si>
-  <si>
     <t>010-3464-5422</t>
   </si>
   <si>
@@ -469,9 +397,6 @@
     <t>이재린</t>
   </si>
   <si>
-    <t>2021/12/01</t>
-  </si>
-  <si>
     <t>010-2875-2083</t>
   </si>
   <si>
@@ -484,9 +409,6 @@
     <t>송동호</t>
   </si>
   <si>
-    <t>2021/12/21</t>
-  </si>
-  <si>
     <t>010-8803-3623</t>
   </si>
   <si>
@@ -529,9 +451,6 @@
     <t>팀장</t>
   </si>
   <si>
-    <t>2022/01/21</t>
-  </si>
-  <si>
     <t>kongyb@hanyang.ac.kr</t>
   </si>
   <si>
@@ -541,9 +460,6 @@
     <t>장현승</t>
   </si>
   <si>
-    <t>2022/02/14</t>
-  </si>
-  <si>
     <t>010-9034-3031</t>
   </si>
   <si>
@@ -556,9 +472,6 @@
     <t>조준현</t>
   </si>
   <si>
-    <t>2022/04/11</t>
-  </si>
-  <si>
     <t>010-2896-2671</t>
   </si>
   <si>
@@ -571,9 +484,6 @@
     <t>백주현</t>
   </si>
   <si>
-    <t>2022/05/23</t>
-  </si>
-  <si>
     <t>010-5343-1782</t>
   </si>
   <si>
@@ -586,9 +496,6 @@
     <t>강수정</t>
   </si>
   <si>
-    <t>2022/05/26</t>
-  </si>
-  <si>
     <t>010-2087-8384</t>
   </si>
   <si>
@@ -604,9 +511,6 @@
     <t>수석본부장</t>
   </si>
   <si>
-    <t>2022/07/05</t>
-  </si>
-  <si>
     <t>010-9190-4219</t>
   </si>
   <si>
@@ -619,9 +523,6 @@
     <t>박정완</t>
   </si>
   <si>
-    <t>2022/12/21</t>
-  </si>
-  <si>
     <t>010-5686-3634</t>
   </si>
   <si>
@@ -658,9 +559,6 @@
     <t>김수진</t>
   </si>
   <si>
-    <t>2023/01/02</t>
-  </si>
-  <si>
     <t>010-3194-5431</t>
   </si>
   <si>
@@ -669,138 +567,6 @@
   <si>
     <t>생년월일(주민번호)</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>720911</t>
-  </si>
-  <si>
-    <t>731121</t>
-  </si>
-  <si>
-    <t>720720</t>
-  </si>
-  <si>
-    <t>511021</t>
-  </si>
-  <si>
-    <t>931020</t>
-  </si>
-  <si>
-    <t>910531</t>
-  </si>
-  <si>
-    <t>900302</t>
-  </si>
-  <si>
-    <t>841213</t>
-  </si>
-  <si>
-    <t>940416</t>
-  </si>
-  <si>
-    <t>910213</t>
-  </si>
-  <si>
-    <t>850905</t>
-  </si>
-  <si>
-    <t>930120</t>
-  </si>
-  <si>
-    <t>931004</t>
-  </si>
-  <si>
-    <t>780419</t>
-  </si>
-  <si>
-    <t>960423</t>
-  </si>
-  <si>
-    <t>910204</t>
-  </si>
-  <si>
-    <t>960903</t>
-  </si>
-  <si>
-    <t>971125</t>
-  </si>
-  <si>
-    <t>980715</t>
-  </si>
-  <si>
-    <t>951125</t>
-  </si>
-  <si>
-    <t>840303</t>
-  </si>
-  <si>
-    <t>981028</t>
-  </si>
-  <si>
-    <t>541122</t>
-  </si>
-  <si>
-    <t>950616</t>
-  </si>
-  <si>
-    <t>960215</t>
-  </si>
-  <si>
-    <t>950923</t>
-  </si>
-  <si>
-    <t>960718</t>
-  </si>
-  <si>
-    <t>850118</t>
-  </si>
-  <si>
-    <t>920401</t>
-  </si>
-  <si>
-    <t>940903</t>
-  </si>
-  <si>
-    <t>960809</t>
-  </si>
-  <si>
-    <t>980404</t>
-  </si>
-  <si>
-    <t>971130</t>
-  </si>
-  <si>
-    <t>981208</t>
-  </si>
-  <si>
-    <t>870519</t>
-  </si>
-  <si>
-    <t>830301</t>
-  </si>
-  <si>
-    <t>960403</t>
-  </si>
-  <si>
-    <t>720901</t>
-  </si>
-  <si>
-    <t>970826</t>
-  </si>
-  <si>
-    <t>791027</t>
-  </si>
-  <si>
-    <t>990923</t>
-  </si>
-  <si>
-    <t>011024</t>
-  </si>
-  <si>
-    <t>010224</t>
-  </si>
-  <si>
-    <t>940723</t>
   </si>
   <si>
     <t>성별</t>
@@ -1839,12 +1605,19 @@
     <t>마케팅팀</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>직위/직급명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd;@"/>
+  </numFmts>
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1925,6 +1698,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1978,7 +1758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1987,9 +1767,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2017,6 +1794,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2334,8 +2120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2349,15 +2135,16 @@
     <col min="8" max="8" width="15.875" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="15.125" customWidth="1"/>
     <col min="10" max="10" width="26.75" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="15.125" customWidth="1"/>
+    <col min="11" max="11" width="29.75" customWidth="1"/>
+    <col min="12" max="12" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>389</v>
+      <c r="B1" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2365,1695 +2152,1695 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>256</v>
+      <c r="K1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>395</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
+      <c r="G2" s="13">
+        <v>42782</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>365</v>
+        <v>287</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>257</v>
+        <v>12</v>
+      </c>
+      <c r="K2" s="12">
+        <v>26553</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
+      <c r="G3" s="13">
+        <v>42782</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>346</v>
+        <v>288</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>258</v>
+        <v>12</v>
+      </c>
+      <c r="K3" s="12">
+        <v>26989</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="13">
+        <v>43383</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>257</v>
+        <v>21</v>
+      </c>
+      <c r="K4" s="12">
+        <v>26500</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="13">
+        <v>43739</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>257</v>
+        <v>26</v>
+      </c>
+      <c r="K5" s="12">
+        <v>18922</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="13">
+        <v>43101</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>257</v>
+      <c r="K6" s="12">
+        <v>34262</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>398</v>
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>320</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="G7" s="13">
+        <v>43342</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>312</v>
+        <v>291</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>257</v>
+        <v>35</v>
+      </c>
+      <c r="K7" s="12">
+        <v>33389</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>399</v>
+        <v>36</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>321</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="G8" s="13">
+        <v>43405</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>287</v>
+        <v>39</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>257</v>
+        <v>40</v>
+      </c>
+      <c r="K8" s="12">
+        <v>32934</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>400</v>
+        <v>41</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>322</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>50</v>
+        <v>34</v>
+      </c>
+      <c r="G9" s="13">
+        <v>43479</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>320</v>
+        <v>292</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>257</v>
+        <v>43</v>
+      </c>
+      <c r="K9" s="12">
+        <v>31029</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>401</v>
+        <v>44</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>323</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>54</v>
+        <v>30</v>
+      </c>
+      <c r="G10" s="13">
+        <v>43480</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>344</v>
+        <v>46</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>257</v>
+        <v>47</v>
+      </c>
+      <c r="K10" s="12">
+        <v>34440</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>402</v>
+        <v>48</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>324</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>59</v>
+        <v>30</v>
+      </c>
+      <c r="G11" s="13">
+        <v>43580</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>258</v>
+        <v>50</v>
+      </c>
+      <c r="K11" s="12">
+        <v>33282</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>403</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>64</v>
+        <v>30</v>
+      </c>
+      <c r="G12" s="13">
+        <v>43633</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>257</v>
+        <v>54</v>
+      </c>
+      <c r="K12" s="12">
+        <v>31295</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>404</v>
+        <v>55</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>326</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>68</v>
+        <v>34</v>
+      </c>
+      <c r="G13" s="13">
+        <v>43637</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>289</v>
+        <v>295</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>257</v>
+        <v>57</v>
+      </c>
+      <c r="K13" s="12">
+        <v>33989</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>399</v>
+        <v>58</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>321</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="G14" s="13">
+        <v>43739</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>257</v>
+        <v>60</v>
+      </c>
+      <c r="K14" s="12">
+        <v>34246</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>405</v>
+        <v>61</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="13">
+        <v>43832</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>257</v>
+      <c r="K15" s="12">
+        <v>28599</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>406</v>
+        <v>64</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>328</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>80</v>
+        <v>30</v>
+      </c>
+      <c r="G16" s="13">
+        <v>43872</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>267</v>
+        <v>298</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>257</v>
+        <v>67</v>
+      </c>
+      <c r="K16" s="12">
+        <v>35178</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>408</v>
+        <v>68</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>330</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>84</v>
+        <v>34</v>
+      </c>
+      <c r="G17" s="13">
+        <v>43885</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>358</v>
+        <v>299</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>257</v>
+        <v>70</v>
+      </c>
+      <c r="K17" s="12">
+        <v>33273</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>407</v>
+        <v>71</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>329</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>88</v>
+        <v>30</v>
+      </c>
+      <c r="G18" s="13">
+        <v>43914</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>355</v>
+        <v>300</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>257</v>
+        <v>73</v>
+      </c>
+      <c r="K18" s="12">
+        <v>35311</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>403</v>
+        <v>74</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>88</v>
+        <v>30</v>
+      </c>
+      <c r="G19" s="13">
+        <v>43914</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>348</v>
+        <v>76</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>270</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>258</v>
+        <v>77</v>
+      </c>
+      <c r="K19" s="12">
+        <v>35759</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>403</v>
+        <v>78</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>88</v>
+        <v>30</v>
+      </c>
+      <c r="G20" s="13">
+        <v>43914</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>283</v>
+        <v>301</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>258</v>
+        <v>80</v>
+      </c>
+      <c r="K20" s="12">
+        <v>35991</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>409</v>
+        <v>81</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>99</v>
+        <v>30</v>
+      </c>
+      <c r="G21" s="13">
+        <v>43997</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>332</v>
+        <v>83</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>258</v>
+        <v>84</v>
+      </c>
+      <c r="K21" s="12">
+        <v>35028</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>409</v>
+        <v>85</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>104</v>
+        <v>30</v>
+      </c>
+      <c r="G22" s="13">
+        <v>44100</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>340</v>
+        <v>87</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>262</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>258</v>
+        <v>88</v>
+      </c>
+      <c r="K22" s="12">
+        <v>30744</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>408</v>
+        <v>89</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>330</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>109</v>
+        <v>30</v>
+      </c>
+      <c r="G23" s="13">
+        <v>44109</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>264</v>
+        <v>302</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>258</v>
+        <v>91</v>
+      </c>
+      <c r="K23" s="12">
+        <v>36096</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>390</v>
+        <v>92</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>113</v>
+        <v>23</v>
+      </c>
+      <c r="G24" s="13">
+        <v>44117</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>257</v>
+        <v>95</v>
+      </c>
+      <c r="K24" s="12">
+        <v>20050</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>402</v>
+        <v>96</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>324</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>118</v>
+        <v>29</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G25" s="13">
+        <v>44197</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>350</v>
+        <v>303</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>272</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>257</v>
+        <v>98</v>
+      </c>
+      <c r="K25" s="12">
+        <v>34866</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>410</v>
+        <v>99</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>332</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>118</v>
+        <v>30</v>
+      </c>
+      <c r="G26" s="13">
+        <v>44197</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>272</v>
+        <v>304</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>257</v>
+        <v>101</v>
+      </c>
+      <c r="K26" s="12">
+        <v>35110</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>411</v>
+        <v>102</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>118</v>
+        <v>30</v>
+      </c>
+      <c r="G27" s="13">
+        <v>44197</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>315</v>
+        <v>305</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>257</v>
+        <v>104</v>
+      </c>
+      <c r="K27" s="12">
+        <v>34965</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>412</v>
+        <v>105</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>334</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>118</v>
+        <v>30</v>
+      </c>
+      <c r="G28" s="13">
+        <v>44197</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>280</v>
+        <v>306</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>257</v>
+        <v>107</v>
+      </c>
+      <c r="K28" s="12">
+        <v>35264</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>413</v>
+        <v>108</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>335</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>131</v>
+        <v>34</v>
+      </c>
+      <c r="G29" s="13">
+        <v>44200</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>257</v>
+        <v>110</v>
+      </c>
+      <c r="K29" s="12">
+        <v>31065</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>401</v>
+        <v>111</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>323</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>135</v>
+        <v>30</v>
+      </c>
+      <c r="G30" s="13">
+        <v>44361</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>303</v>
+        <v>113</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>257</v>
+        <v>114</v>
+      </c>
+      <c r="K30" s="12">
+        <v>33695</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>414</v>
+        <v>115</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>336</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>140</v>
+        <v>30</v>
+      </c>
+      <c r="G31" s="13">
+        <v>44466</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>318</v>
+        <v>117</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>257</v>
+        <v>118</v>
+      </c>
+      <c r="K31" s="12">
+        <v>34580</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>402</v>
+        <v>119</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>324</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>145</v>
+        <v>30</v>
+      </c>
+      <c r="G32" s="13">
+        <v>44531</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>147</v>
+        <v>121</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>257</v>
+        <v>122</v>
+      </c>
+      <c r="K32" s="12">
+        <v>35286</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>400</v>
+        <v>123</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>322</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>150</v>
+        <v>30</v>
+      </c>
+      <c r="G33" s="13">
+        <v>44551</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>310</v>
+        <v>125</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>232</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>257</v>
+        <v>126</v>
+      </c>
+      <c r="K33" s="12">
+        <v>35889</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>404</v>
+        <v>127</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>326</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>150</v>
+        <v>30</v>
+      </c>
+      <c r="G34" s="13">
+        <v>44551</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>295</v>
+        <v>129</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>257</v>
+        <v>130</v>
+      </c>
+      <c r="K34" s="12">
+        <v>35764</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>402</v>
+        <v>131</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>324</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>150</v>
+        <v>30</v>
+      </c>
+      <c r="G35" s="13">
+        <v>44551</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>334</v>
+        <v>133</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>257</v>
+        <v>134</v>
+      </c>
+      <c r="K35" s="12">
+        <v>36137</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>415</v>
+        <v>135</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>337</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>165</v>
+        <v>138</v>
+      </c>
+      <c r="G36" s="13">
+        <v>44582</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>275</v>
+        <v>308</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>257</v>
+        <v>139</v>
+      </c>
+      <c r="K36" s="12">
+        <v>31916</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>417</v>
+        <v>140</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>339</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>169</v>
+        <v>34</v>
+      </c>
+      <c r="G37" s="13">
+        <v>44606</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>338</v>
+        <v>142</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>257</v>
+        <v>143</v>
+      </c>
+      <c r="K37" s="12">
+        <v>30376</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>418</v>
+        <v>144</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>340</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>174</v>
+        <v>30</v>
+      </c>
+      <c r="G38" s="13">
+        <v>44662</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>342</v>
+        <v>146</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>257</v>
+        <v>147</v>
+      </c>
+      <c r="K38" s="12">
+        <v>35158</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>421</v>
+        <v>148</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>388</v>
+        <v>149</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>310</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="G39" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G39" s="13">
+        <v>44704</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K39" s="12">
+        <v>26543</v>
+      </c>
+      <c r="L39" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>408</v>
+        <v>152</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>330</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="13">
+        <v>44707</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I40" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>262</v>
-      </c>
       <c r="J40" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>258</v>
+        <v>155</v>
+      </c>
+      <c r="K40" s="12">
+        <v>35668</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>419</v>
+        <v>156</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>341</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>190</v>
+        <v>158</v>
+      </c>
+      <c r="G41" s="13">
+        <v>44747</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>323</v>
+        <v>159</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>245</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>257</v>
+        <v>160</v>
+      </c>
+      <c r="K41" s="12">
+        <v>29155</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>420</v>
+        <v>161</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>342</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>195</v>
+        <v>30</v>
+      </c>
+      <c r="G42" s="13">
+        <v>44916</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>364</v>
+        <v>163</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>257</v>
+        <v>164</v>
+      </c>
+      <c r="K42" s="12">
+        <v>36426</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>409</v>
+        <v>165</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>195</v>
+        <v>30</v>
+      </c>
+      <c r="G43" s="13">
+        <v>44916</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>363</v>
+        <v>167</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>285</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>258</v>
+        <v>168</v>
+      </c>
+      <c r="K43" s="12">
+        <v>37188</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>409</v>
+        <v>169</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>331</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>195</v>
+        <v>30</v>
+      </c>
+      <c r="G44" s="13">
+        <v>44916</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>362</v>
+        <v>171</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>284</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>258</v>
+        <v>172</v>
+      </c>
+      <c r="K44" s="12">
+        <v>36946</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>419</v>
+        <v>173</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>341</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>208</v>
+        <v>29</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G45" s="13">
+        <v>44928</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>210</v>
+        <v>175</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>258</v>
+        <v>176</v>
+      </c>
+      <c r="K45" s="12">
+        <v>34538</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4085,13 +3872,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>360</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c r="C1" t="s">
-        <v>260</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4100,13 +3887,13 @@
         <v>강수정</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>184</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4115,13 +3902,13 @@
         <v>강지은</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
-        <v>264</v>
+        <v>186</v>
       </c>
       <c r="D3" t="s">
-        <v>265</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4130,13 +3917,13 @@
         <v>강형석</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>267</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>268</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4145,13 +3932,13 @@
         <v>경영전</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4160,13 +3947,13 @@
         <v>고영진</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
-        <v>272</v>
+        <v>194</v>
       </c>
       <c r="D6" t="s">
-        <v>273</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4175,13 +3962,13 @@
         <v>공윤배</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="D7" t="s">
-        <v>276</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4190,10 +3977,10 @@
         <v>기술연</v>
       </c>
       <c r="B8" t="s">
-        <v>277</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>278</v>
+        <v>200</v>
       </c>
       <c r="D8">
         <v>1073356699</v>
@@ -4205,13 +3992,13 @@
         <v>김명진</v>
       </c>
       <c r="B9" t="s">
-        <v>279</v>
+        <v>201</v>
       </c>
       <c r="C9" t="s">
-        <v>280</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>281</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4220,13 +4007,13 @@
         <v>김송화</v>
       </c>
       <c r="B10" t="s">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s">
-        <v>283</v>
+        <v>205</v>
       </c>
       <c r="D10" t="s">
-        <v>284</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4235,13 +4022,13 @@
         <v>김수진</v>
       </c>
       <c r="B11" t="s">
-        <v>285</v>
+        <v>207</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="D11" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4250,13 +4037,13 @@
         <v>김영순</v>
       </c>
       <c r="B12" t="s">
-        <v>286</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s">
-        <v>287</v>
+        <v>209</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4265,13 +4052,13 @@
         <v>김준용</v>
       </c>
       <c r="B13" t="s">
-        <v>288</v>
+        <v>210</v>
       </c>
       <c r="C13" t="s">
-        <v>289</v>
+        <v>211</v>
       </c>
       <c r="D13" t="s">
-        <v>290</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4280,13 +4067,13 @@
         <v>김현정</v>
       </c>
       <c r="B14" t="s">
-        <v>291</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s">
-        <v>292</v>
+        <v>214</v>
       </c>
       <c r="D14" t="s">
-        <v>293</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4295,13 +4082,13 @@
         <v>문성현</v>
       </c>
       <c r="B15" t="s">
-        <v>294</v>
+        <v>216</v>
       </c>
       <c r="C15" t="s">
-        <v>295</v>
+        <v>217</v>
       </c>
       <c r="D15" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4310,13 +4097,13 @@
         <v>박범희</v>
       </c>
       <c r="B16" t="s">
-        <v>296</v>
+        <v>218</v>
       </c>
       <c r="C16" t="s">
-        <v>297</v>
+        <v>219</v>
       </c>
       <c r="D16" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4325,13 +4112,13 @@
         <v>박승제</v>
       </c>
       <c r="B17" t="s">
-        <v>299</v>
+        <v>221</v>
       </c>
       <c r="C17" t="s">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="D17" t="s">
-        <v>301</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4340,13 +4127,13 @@
         <v>배준한</v>
       </c>
       <c r="B18" t="s">
-        <v>302</v>
+        <v>224</v>
       </c>
       <c r="C18" t="s">
-        <v>303</v>
+        <v>225</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4355,13 +4142,13 @@
         <v>배한진</v>
       </c>
       <c r="B19" t="s">
-        <v>304</v>
+        <v>226</v>
       </c>
       <c r="C19" t="s">
-        <v>305</v>
+        <v>227</v>
       </c>
       <c r="D19" t="s">
-        <v>306</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4370,13 +4157,13 @@
         <v>백주현</v>
       </c>
       <c r="B20" t="s">
-        <v>307</v>
+        <v>229</v>
       </c>
       <c r="C20" t="s">
-        <v>308</v>
+        <v>230</v>
       </c>
       <c r="D20" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4385,13 +4172,13 @@
         <v>송동호</v>
       </c>
       <c r="B21" t="s">
-        <v>309</v>
+        <v>231</v>
       </c>
       <c r="C21" t="s">
-        <v>310</v>
+        <v>232</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4400,13 +4187,13 @@
         <v>송준호</v>
       </c>
       <c r="B22" t="s">
-        <v>311</v>
+        <v>233</v>
       </c>
       <c r="C22" t="s">
-        <v>312</v>
+        <v>234</v>
       </c>
       <c r="D22" t="s">
-        <v>313</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4415,13 +4202,13 @@
         <v>윤희배</v>
       </c>
       <c r="B23" t="s">
-        <v>314</v>
+        <v>236</v>
       </c>
       <c r="C23" t="s">
-        <v>315</v>
+        <v>237</v>
       </c>
       <c r="D23" t="s">
-        <v>316</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4430,13 +4217,13 @@
         <v>이승원</v>
       </c>
       <c r="B24" t="s">
-        <v>317</v>
+        <v>239</v>
       </c>
       <c r="C24" t="s">
-        <v>318</v>
+        <v>240</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4445,13 +4232,13 @@
         <v>이영수</v>
       </c>
       <c r="B25" t="s">
-        <v>319</v>
+        <v>241</v>
       </c>
       <c r="C25" t="s">
-        <v>320</v>
+        <v>242</v>
       </c>
       <c r="D25" t="s">
-        <v>321</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4460,13 +4247,13 @@
         <v>이원석</v>
       </c>
       <c r="B26" t="s">
-        <v>322</v>
+        <v>244</v>
       </c>
       <c r="C26" t="s">
-        <v>323</v>
+        <v>245</v>
       </c>
       <c r="D26" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4475,13 +4262,13 @@
         <v>이재린</v>
       </c>
       <c r="B27" t="s">
-        <v>324</v>
+        <v>246</v>
       </c>
       <c r="C27" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4490,13 +4277,13 @@
         <v>이재무</v>
       </c>
       <c r="B28" t="s">
-        <v>325</v>
+        <v>247</v>
       </c>
       <c r="C28" t="s">
-        <v>326</v>
+        <v>248</v>
       </c>
       <c r="D28" t="s">
-        <v>327</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4505,13 +4292,13 @@
         <v>이재형</v>
       </c>
       <c r="B29" t="s">
-        <v>328</v>
+        <v>250</v>
       </c>
       <c r="C29" t="s">
-        <v>329</v>
+        <v>251</v>
       </c>
       <c r="D29" t="s">
-        <v>330</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4520,13 +4307,13 @@
         <v>이주연</v>
       </c>
       <c r="B30" t="s">
-        <v>331</v>
+        <v>253</v>
       </c>
       <c r="C30" t="s">
-        <v>332</v>
+        <v>254</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4535,13 +4322,13 @@
         <v>이효민</v>
       </c>
       <c r="B31" t="s">
-        <v>333</v>
+        <v>255</v>
       </c>
       <c r="C31" t="s">
-        <v>334</v>
+        <v>256</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4550,13 +4337,13 @@
         <v>임준택</v>
       </c>
       <c r="B32" t="s">
-        <v>335</v>
+        <v>257</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>336</v>
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4565,13 +4352,13 @@
         <v>장현승</v>
       </c>
       <c r="B33" t="s">
-        <v>337</v>
+        <v>259</v>
       </c>
       <c r="C33" t="s">
-        <v>338</v>
+        <v>260</v>
       </c>
       <c r="D33" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4580,13 +4367,13 @@
         <v>정지혜</v>
       </c>
       <c r="B34" t="s">
-        <v>339</v>
+        <v>261</v>
       </c>
       <c r="C34" t="s">
-        <v>340</v>
+        <v>262</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4595,13 +4382,13 @@
         <v>조준현</v>
       </c>
       <c r="B35" t="s">
-        <v>341</v>
+        <v>263</v>
       </c>
       <c r="C35" t="s">
-        <v>342</v>
+        <v>264</v>
       </c>
       <c r="D35" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4610,13 +4397,13 @@
         <v>주홍찬</v>
       </c>
       <c r="B36" t="s">
-        <v>343</v>
+        <v>265</v>
       </c>
       <c r="C36" t="s">
-        <v>344</v>
+        <v>266</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4625,10 +4412,10 @@
         <v>최승희</v>
       </c>
       <c r="B37" t="s">
-        <v>345</v>
+        <v>267</v>
       </c>
       <c r="C37" t="s">
-        <v>346</v>
+        <v>268</v>
       </c>
       <c r="D37">
         <v>1036399784</v>
@@ -4640,13 +4427,13 @@
         <v>최은진</v>
       </c>
       <c r="B38" t="s">
-        <v>347</v>
+        <v>269</v>
       </c>
       <c r="C38" t="s">
-        <v>348</v>
+        <v>270</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4655,13 +4442,13 @@
         <v>한석주</v>
       </c>
       <c r="B39" t="s">
-        <v>349</v>
+        <v>271</v>
       </c>
       <c r="C39" t="s">
-        <v>350</v>
+        <v>272</v>
       </c>
       <c r="D39" t="s">
-        <v>351</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -4670,10 +4457,10 @@
         <v>한양풍</v>
       </c>
       <c r="B40" t="s">
-        <v>352</v>
+        <v>274</v>
       </c>
       <c r="C40" t="s">
-        <v>353</v>
+        <v>275</v>
       </c>
       <c r="D40">
         <v>1072244623</v>
@@ -4685,13 +4472,13 @@
         <v>한윤호</v>
       </c>
       <c r="B41" t="s">
-        <v>354</v>
+        <v>276</v>
       </c>
       <c r="C41" t="s">
-        <v>355</v>
+        <v>277</v>
       </c>
       <c r="D41" t="s">
-        <v>356</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4700,13 +4487,13 @@
         <v>홍기찬</v>
       </c>
       <c r="B42" t="s">
-        <v>357</v>
+        <v>279</v>
       </c>
       <c r="C42" t="s">
-        <v>358</v>
+        <v>280</v>
       </c>
       <c r="D42" t="s">
-        <v>359</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/resources/migration/인사카드.xlsx
+++ b/app/src/main/resources/migration/인사카드.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\hywtl_has\app\src\main\resources\migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4C939F-FD07-4DEB-83C4-925E6FE3BE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0D93CB-C02A-4A15-8CD3-F5F6BBCD6B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-45" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19200" yWindow="0" windowWidth="19200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="인사카드등록" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="393">
   <si>
     <t>사원번호</t>
   </si>
@@ -571,12 +571,6 @@
   <si>
     <t>성별</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>남</t>
-  </si>
-  <si>
-    <t>여</t>
   </si>
   <si>
     <t>[TEAMS]회사대표계정</t>
@@ -1607,6 +1601,222 @@
   </si>
   <si>
     <t>직위/직급명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leejw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>noid99</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>limjt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kimjr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>leejh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>songjh</t>
+  </si>
+  <si>
+    <t>kimys</t>
+  </si>
+  <si>
+    <t>leeys</t>
+  </si>
+  <si>
+    <t>joohc</t>
+  </si>
+  <si>
+    <t>kimhj</t>
+  </si>
+  <si>
+    <t>backsj</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kimjy</t>
+  </si>
+  <si>
+    <t>parkbh</t>
+  </si>
+  <si>
+    <t>leejm</t>
+  </si>
+  <si>
+    <t>kanghs</t>
+  </si>
+  <si>
+    <t>hongkc</t>
+  </si>
+  <si>
+    <t>hanyh</t>
+  </si>
+  <si>
+    <t>choiej</t>
+  </si>
+  <si>
+    <t>kimsh</t>
+  </si>
+  <si>
+    <t>leejy</t>
+  </si>
+  <si>
+    <t>jungjh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kangje</t>
+  </si>
+  <si>
+    <t>kimys1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hansj</t>
+  </si>
+  <si>
+    <t>koyj</t>
+  </si>
+  <si>
+    <t>yoonhb</t>
+  </si>
+  <si>
+    <t>kimmj</t>
+  </si>
+  <si>
+    <t>baehj</t>
+  </si>
+  <si>
+    <t>baejh</t>
+  </si>
+  <si>
+    <t>leesw</t>
+  </si>
+  <si>
+    <t>leejr</t>
+  </si>
+  <si>
+    <t>songdh</t>
+  </si>
+  <si>
+    <t>moonsh</t>
+  </si>
+  <si>
+    <t>leehm</t>
+  </si>
+  <si>
+    <t>kongyb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>janghs</t>
+  </si>
+  <si>
+    <t>jojh</t>
+  </si>
+  <si>
+    <t>baekjh</t>
+  </si>
+  <si>
+    <t>kangsj</t>
+  </si>
+  <si>
+    <t>leews</t>
+  </si>
+  <si>
+    <t>parkjw</t>
+  </si>
+  <si>
+    <t>kimhr</t>
+  </si>
+  <si>
+    <t>shinyk</t>
+  </si>
+  <si>
+    <t>kimsj</t>
+  </si>
+  <si>
+    <t>kimys1@hywtl.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1617,7 +1827,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1705,6 +1915,39 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1714,7 +1957,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1752,13 +1995,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1803,6 +2072,27 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2110,7 +2400,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2118,10 +2408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2139,12 +2429,12 @@
     <col min="12" max="12" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2153,7 +2443,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -2165,7 +2455,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -2176,16 +2466,19 @@
       <c r="L1" s="4" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -2200,7 +2493,7 @@
         <v>42782</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
@@ -2209,16 +2502,19 @@
       <c r="K2" s="12">
         <v>26553</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -2236,10 +2532,10 @@
         <v>42782</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>12</v>
@@ -2247,19 +2543,22 @@
       <c r="K3" s="12">
         <v>26989</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -2274,7 +2573,7 @@
         <v>43383</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>21</v>
@@ -2285,16 +2584,19 @@
       <c r="K4" s="12">
         <v>26500</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="L4" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>23</v>
@@ -2321,19 +2623,22 @@
       <c r="K5" s="12">
         <v>18922</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="L5" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>28</v>
@@ -2348,10 +2653,10 @@
         <v>43101</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>31</v>
@@ -2359,19 +2664,22 @@
       <c r="K6" s="12">
         <v>34262</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
@@ -2386,10 +2694,10 @@
         <v>43342</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>35</v>
@@ -2397,19 +2705,22 @@
       <c r="K7" s="12">
         <v>33389</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="L7" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>37</v>
@@ -2427,7 +2738,7 @@
         <v>39</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>40</v>
@@ -2435,19 +2746,22 @@
       <c r="K8" s="12">
         <v>32934</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>42</v>
@@ -2462,10 +2776,10 @@
         <v>43479</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>43</v>
@@ -2473,19 +2787,22 @@
       <c r="K9" s="12">
         <v>31029</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>45</v>
@@ -2503,7 +2820,7 @@
         <v>46</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>47</v>
@@ -2511,19 +2828,22 @@
       <c r="K10" s="12">
         <v>34440</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>49</v>
@@ -2538,10 +2858,10 @@
         <v>43580</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>50</v>
@@ -2549,19 +2869,22 @@
       <c r="K11" s="12">
         <v>33282</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="L11" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>52</v>
@@ -2576,10 +2899,10 @@
         <v>43633</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>54</v>
@@ -2587,19 +2910,22 @@
       <c r="K12" s="12">
         <v>31295</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>56</v>
@@ -2614,10 +2940,10 @@
         <v>43637</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>57</v>
@@ -2625,19 +2951,22 @@
       <c r="K13" s="12">
         <v>33989</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="L13" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>59</v>
@@ -2652,10 +2981,10 @@
         <v>43739</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>60</v>
@@ -2663,19 +2992,22 @@
       <c r="K14" s="12">
         <v>34246</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="L14" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>62</v>
@@ -2690,10 +3022,10 @@
         <v>43832</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>63</v>
@@ -2701,19 +3033,22 @@
       <c r="K15" s="12">
         <v>28599</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="L15" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>65</v>
@@ -2728,10 +3063,10 @@
         <v>43872</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>67</v>
@@ -2739,19 +3074,22 @@
       <c r="K16" s="12">
         <v>35178</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="L16" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>69</v>
@@ -2766,10 +3104,10 @@
         <v>43885</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>70</v>
@@ -2777,19 +3115,22 @@
       <c r="K17" s="12">
         <v>33273</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="L17" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>72</v>
@@ -2804,10 +3145,10 @@
         <v>43914</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>73</v>
@@ -2815,19 +3156,22 @@
       <c r="K18" s="12">
         <v>35311</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="L18" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>75</v>
@@ -2845,7 +3189,7 @@
         <v>76</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>77</v>
@@ -2853,19 +3197,22 @@
       <c r="K19" s="12">
         <v>35759</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="L19" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>79</v>
@@ -2880,10 +3227,10 @@
         <v>43914</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>80</v>
@@ -2891,19 +3238,22 @@
       <c r="K20" s="12">
         <v>35991</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="L20" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>82</v>
@@ -2921,7 +3271,7 @@
         <v>83</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>84</v>
@@ -2929,19 +3279,22 @@
       <c r="K21" s="12">
         <v>35028</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="L21" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>86</v>
@@ -2959,7 +3312,7 @@
         <v>87</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>88</v>
@@ -2967,19 +3320,22 @@
       <c r="K22" s="12">
         <v>30744</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="L22" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>90</v>
@@ -2994,10 +3350,10 @@
         <v>44109</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>91</v>
@@ -3005,16 +3361,19 @@
       <c r="K23" s="12">
         <v>36096</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="L23" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>23</v>
@@ -3034,26 +3393,31 @@
       <c r="H24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I24" s="2"/>
+      <c r="I24" s="21" t="s">
+        <v>388</v>
+      </c>
       <c r="J24" s="2" t="s">
         <v>95</v>
       </c>
       <c r="K24" s="12">
         <v>20050</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="L24" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>97</v>
@@ -3062,16 +3426,16 @@
         <v>29</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G25" s="13">
         <v>44197</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>98</v>
@@ -3079,19 +3443,22 @@
       <c r="K25" s="12">
         <v>34866</v>
       </c>
-      <c r="L25" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="L25" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>100</v>
@@ -3106,10 +3473,10 @@
         <v>44197</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>101</v>
@@ -3117,19 +3484,22 @@
       <c r="K26" s="12">
         <v>35110</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="L26" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>103</v>
@@ -3144,10 +3514,10 @@
         <v>44197</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>104</v>
@@ -3155,19 +3525,22 @@
       <c r="K27" s="12">
         <v>34965</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="L27" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>106</v>
@@ -3182,10 +3555,10 @@
         <v>44197</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>107</v>
@@ -3193,19 +3566,22 @@
       <c r="K28" s="12">
         <v>35264</v>
       </c>
-      <c r="L28" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="L28" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>109</v>
@@ -3220,10 +3596,10 @@
         <v>44200</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>110</v>
@@ -3231,19 +3607,22 @@
       <c r="K29" s="12">
         <v>31065</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="L29" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>112</v>
@@ -3261,7 +3640,7 @@
         <v>113</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>114</v>
@@ -3269,19 +3648,22 @@
       <c r="K30" s="12">
         <v>33695</v>
       </c>
-      <c r="L30" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="L30" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>116</v>
@@ -3299,7 +3681,7 @@
         <v>117</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>118</v>
@@ -3307,19 +3689,22 @@
       <c r="K31" s="12">
         <v>34580</v>
       </c>
-      <c r="L31" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="L31" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>120</v>
@@ -3345,19 +3730,22 @@
       <c r="K32" s="12">
         <v>35286</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="L32" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>124</v>
@@ -3375,7 +3763,7 @@
         <v>125</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>126</v>
@@ -3383,19 +3771,22 @@
       <c r="K33" s="12">
         <v>35889</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="L33" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>128</v>
@@ -3413,7 +3804,7 @@
         <v>129</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>130</v>
@@ -3421,19 +3812,22 @@
       <c r="K34" s="12">
         <v>35764</v>
       </c>
-      <c r="L34" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="L34" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>132</v>
@@ -3451,7 +3845,7 @@
         <v>133</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>134</v>
@@ -3459,19 +3853,22 @@
       <c r="K35" s="12">
         <v>36137</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="L35" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="M35" s="16" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>136</v>
@@ -3486,10 +3883,10 @@
         <v>44582</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>139</v>
@@ -3497,19 +3894,22 @@
       <c r="K36" s="12">
         <v>31916</v>
       </c>
-      <c r="L36" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="L36" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>141</v>
@@ -3527,7 +3927,7 @@
         <v>142</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>143</v>
@@ -3535,19 +3935,22 @@
       <c r="K37" s="12">
         <v>30376</v>
       </c>
-      <c r="L37" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="L37" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="M37" s="15" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>145</v>
@@ -3565,7 +3968,7 @@
         <v>146</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>147</v>
@@ -3573,28 +3976,31 @@
       <c r="K38" s="12">
         <v>35158</v>
       </c>
-      <c r="L38" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="L38" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="M38" s="17" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>149</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G39" s="13">
         <v>44704</v>
@@ -3603,7 +4009,7 @@
         <v>150</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>151</v>
@@ -3611,19 +4017,22 @@
       <c r="K39" s="12">
         <v>26543</v>
       </c>
-      <c r="L39" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="L39" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>153</v>
@@ -3641,7 +4050,7 @@
         <v>154</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>155</v>
@@ -3649,19 +4058,22 @@
       <c r="K40" s="12">
         <v>35668</v>
       </c>
-      <c r="L40" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="L40" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="M40" s="15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>157</v>
@@ -3679,7 +4091,7 @@
         <v>159</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>160</v>
@@ -3687,19 +4099,22 @@
       <c r="K41" s="12">
         <v>29155</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="L41" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="M41" s="16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>162</v>
@@ -3717,7 +4132,7 @@
         <v>163</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>164</v>
@@ -3725,19 +4140,22 @@
       <c r="K42" s="12">
         <v>36426</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="L42" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="M42" s="15" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>166</v>
@@ -3755,7 +4173,7 @@
         <v>167</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>168</v>
@@ -3763,19 +4181,22 @@
       <c r="K43" s="12">
         <v>37188</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="L43" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="M43" s="16" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>170</v>
@@ -3793,7 +4214,7 @@
         <v>171</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>172</v>
@@ -3801,19 +4222,22 @@
       <c r="K44" s="12">
         <v>36946</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="L44" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="M44" s="15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>174</v>
@@ -3822,7 +4246,7 @@
         <v>29</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G45" s="13">
         <v>44928</v>
@@ -3839,8 +4263,11 @@
       <c r="K45" s="12">
         <v>34538</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>180</v>
+      <c r="L45" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="M45" s="16" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -3872,13 +4299,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3887,10 +4314,10 @@
         <v>강수정</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D2" t="s">
         <v>154</v>
@@ -3902,13 +4329,13 @@
         <v>강지은</v>
       </c>
       <c r="B3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" t="s">
         <v>185</v>
-      </c>
-      <c r="C3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3917,13 +4344,13 @@
         <v>강형석</v>
       </c>
       <c r="B4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" t="s">
         <v>188</v>
-      </c>
-      <c r="C4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3932,10 +4359,10 @@
         <v>경영전</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D5" t="s">
         <v>142</v>
@@ -3947,13 +4374,13 @@
         <v>고영진</v>
       </c>
       <c r="B6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" t="s">
         <v>193</v>
-      </c>
-      <c r="C6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3962,13 +4389,13 @@
         <v>공윤배</v>
       </c>
       <c r="B7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" t="s">
         <v>196</v>
-      </c>
-      <c r="C7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3977,10 +4404,10 @@
         <v>기술연</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D8">
         <v>1073356699</v>
@@ -3992,13 +4419,13 @@
         <v>김명진</v>
       </c>
       <c r="B9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" t="s">
         <v>201</v>
-      </c>
-      <c r="C9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4007,13 +4434,13 @@
         <v>김송화</v>
       </c>
       <c r="B10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" t="s">
         <v>204</v>
-      </c>
-      <c r="C10" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4022,7 +4449,7 @@
         <v>김수진</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C11" t="s">
         <v>176</v>
@@ -4037,10 +4464,10 @@
         <v>김영순</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D12" t="s">
         <v>39</v>
@@ -4052,13 +4479,13 @@
         <v>김준용</v>
       </c>
       <c r="B13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" t="s">
         <v>210</v>
-      </c>
-      <c r="C13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4067,13 +4494,13 @@
         <v>김현정</v>
       </c>
       <c r="B14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" t="s">
         <v>213</v>
-      </c>
-      <c r="C14" t="s">
-        <v>214</v>
-      </c>
-      <c r="D14" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4082,10 +4509,10 @@
         <v>문성현</v>
       </c>
       <c r="B15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D15" t="s">
         <v>129</v>
@@ -4097,13 +4524,13 @@
         <v>박범희</v>
       </c>
       <c r="B16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" t="s">
         <v>218</v>
-      </c>
-      <c r="C16" t="s">
-        <v>219</v>
-      </c>
-      <c r="D16" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4112,13 +4539,13 @@
         <v>박승제</v>
       </c>
       <c r="B17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" t="s">
         <v>221</v>
-      </c>
-      <c r="C17" t="s">
-        <v>222</v>
-      </c>
-      <c r="D17" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4127,10 +4554,10 @@
         <v>배준한</v>
       </c>
       <c r="B18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D18" t="s">
         <v>113</v>
@@ -4142,13 +4569,13 @@
         <v>배한진</v>
       </c>
       <c r="B19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" t="s">
         <v>226</v>
-      </c>
-      <c r="C19" t="s">
-        <v>227</v>
-      </c>
-      <c r="D19" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4157,10 +4584,10 @@
         <v>백주현</v>
       </c>
       <c r="B20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D20" t="s">
         <v>150</v>
@@ -4172,10 +4599,10 @@
         <v>송동호</v>
       </c>
       <c r="B21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D21" t="s">
         <v>125</v>
@@ -4187,13 +4614,13 @@
         <v>송준호</v>
       </c>
       <c r="B22" t="s">
+        <v>231</v>
+      </c>
+      <c r="C22" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22" t="s">
         <v>233</v>
-      </c>
-      <c r="C22" t="s">
-        <v>234</v>
-      </c>
-      <c r="D22" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4202,13 +4629,13 @@
         <v>윤희배</v>
       </c>
       <c r="B23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" t="s">
         <v>236</v>
-      </c>
-      <c r="C23" t="s">
-        <v>237</v>
-      </c>
-      <c r="D23" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4217,10 +4644,10 @@
         <v>이승원</v>
       </c>
       <c r="B24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C24" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D24" t="s">
         <v>117</v>
@@ -4232,13 +4659,13 @@
         <v>이영수</v>
       </c>
       <c r="B25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" t="s">
+        <v>240</v>
+      </c>
+      <c r="D25" t="s">
         <v>241</v>
-      </c>
-      <c r="C25" t="s">
-        <v>242</v>
-      </c>
-      <c r="D25" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4247,10 +4674,10 @@
         <v>이원석</v>
       </c>
       <c r="B26" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C26" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D26" t="s">
         <v>159</v>
@@ -4262,7 +4689,7 @@
         <v>이재린</v>
       </c>
       <c r="B27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C27" t="s">
         <v>122</v>
@@ -4277,13 +4704,13 @@
         <v>이재무</v>
       </c>
       <c r="B28" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" t="s">
+        <v>246</v>
+      </c>
+      <c r="D28" t="s">
         <v>247</v>
-      </c>
-      <c r="C28" t="s">
-        <v>248</v>
-      </c>
-      <c r="D28" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4292,13 +4719,13 @@
         <v>이재형</v>
       </c>
       <c r="B29" t="s">
+        <v>248</v>
+      </c>
+      <c r="C29" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" t="s">
         <v>250</v>
-      </c>
-      <c r="C29" t="s">
-        <v>251</v>
-      </c>
-      <c r="D29" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4307,10 +4734,10 @@
         <v>이주연</v>
       </c>
       <c r="B30" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D30" t="s">
         <v>83</v>
@@ -4322,10 +4749,10 @@
         <v>이효민</v>
       </c>
       <c r="B31" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C31" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D31" t="s">
         <v>133</v>
@@ -4337,13 +4764,13 @@
         <v>임준택</v>
       </c>
       <c r="B32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C32" t="s">
         <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4352,10 +4779,10 @@
         <v>장현승</v>
       </c>
       <c r="B33" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C33" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D33" t="s">
         <v>142</v>
@@ -4367,10 +4794,10 @@
         <v>정지혜</v>
       </c>
       <c r="B34" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C34" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D34" t="s">
         <v>87</v>
@@ -4382,10 +4809,10 @@
         <v>조준현</v>
       </c>
       <c r="B35" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C35" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D35" t="s">
         <v>146</v>
@@ -4397,10 +4824,10 @@
         <v>주홍찬</v>
       </c>
       <c r="B36" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C36" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D36" t="s">
         <v>46</v>
@@ -4412,10 +4839,10 @@
         <v>최승희</v>
       </c>
       <c r="B37" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C37" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D37">
         <v>1036399784</v>
@@ -4427,10 +4854,10 @@
         <v>최은진</v>
       </c>
       <c r="B38" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C38" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D38" t="s">
         <v>76</v>
@@ -4442,13 +4869,13 @@
         <v>한석주</v>
       </c>
       <c r="B39" t="s">
+        <v>269</v>
+      </c>
+      <c r="C39" t="s">
+        <v>270</v>
+      </c>
+      <c r="D39" t="s">
         <v>271</v>
-      </c>
-      <c r="C39" t="s">
-        <v>272</v>
-      </c>
-      <c r="D39" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -4457,10 +4884,10 @@
         <v>한양풍</v>
       </c>
       <c r="B40" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C40" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D40">
         <v>1072244623</v>
@@ -4472,13 +4899,13 @@
         <v>한윤호</v>
       </c>
       <c r="B41" t="s">
+        <v>274</v>
+      </c>
+      <c r="C41" t="s">
+        <v>275</v>
+      </c>
+      <c r="D41" t="s">
         <v>276</v>
-      </c>
-      <c r="C41" t="s">
-        <v>277</v>
-      </c>
-      <c r="D41" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4487,13 +4914,13 @@
         <v>홍기찬</v>
       </c>
       <c r="B42" t="s">
+        <v>277</v>
+      </c>
+      <c r="C42" t="s">
+        <v>278</v>
+      </c>
+      <c r="D42" t="s">
         <v>279</v>
-      </c>
-      <c r="C42" t="s">
-        <v>280</v>
-      </c>
-      <c r="D42" t="s">
-        <v>281</v>
       </c>
     </row>
   </sheetData>
